--- a/data/trans_orig/PER_RUIDO_INT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en País Vasco</t>
+          <t>Percepción del ruido en el interior de la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4437,7 +4437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Andalucia</t>
+          <t>Percepción del ruido en el interior de la vivienda en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8328,7 +8328,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en C.Valenciana</t>
+          <t>Percepción del ruido en el interior de la vivienda en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12219,7 +12219,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Barcelona</t>
+          <t>Percepción del ruido en el interior de la vivienda en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_RUIDO_INT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Edad-trans_orig.xlsx
@@ -736,102 +736,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>6642</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>4805</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7791</t>
+          <t>9486</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4121</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8975</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>12651</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>9638</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16405</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
           <t>12,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5652</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3771</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7789</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>12,33%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>11136</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>8597</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>14260</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>8,71%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15069</t>
+          <t>15481</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12266</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18347</t>
+          <t>18544</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12577</t>
+          <t>12047</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9829</t>
+          <t>9390</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15666</t>
+          <t>14938</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>27646</t>
+          <t>27527</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>23833</t>
+          <t>23578</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>32163</t>
+          <t>31867</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>23,43%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44057</t>
+          <t>45532</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40684</t>
+          <t>41989</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47224</t>
+          <t>48797</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,19%</t>
+          <t>67,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,09%</t>
+          <t>72,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44966</t>
+          <t>50273</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>41315</t>
+          <t>46649</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>47801</t>
+          <t>53432</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>73,58%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>78,2%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>89022</t>
+          <t>95805</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>84238</t>
+          <t>90536</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>93309</t>
+          <t>100106</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>70,45%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>66,58%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>73,62%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>6964</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>4802</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7206</t>
+          <t>10074</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>8440</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3786</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7667</t>
+          <t>11615</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>10512</t>
+          <t>15404</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>7933</t>
+          <t>11834</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>13712</t>
+          <t>20481</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14692</t>
+          <t>17225</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11723</t>
+          <t>13549</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18019</t>
+          <t>21102</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11581</t>
+          <t>14272</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9171</t>
+          <t>11083</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14685</t>
+          <t>18036</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>26272</t>
+          <t>31497</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>22092</t>
+          <t>27067</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>30639</t>
+          <t>37038</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>20,48%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52174</t>
+          <t>67136</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48544</t>
+          <t>62873</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55366</t>
+          <t>71202</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>73,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>68,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>77,02%</t>
+          <t>77,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49191</t>
+          <t>66781</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45796</t>
+          <t>62692</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>52134</t>
+          <t>70820</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>74,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>78,68%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>101365</t>
+          <t>133917</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>96477</t>
+          <t>127223</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>105940</t>
+          <t>139308</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>73,37%</t>
+          <t>74,06%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>77,04%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9523</t>
+          <t>10470</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7045</t>
+          <t>7809</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12465</t>
+          <t>13815</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9052</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6515</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11961</t>
+          <t>14440</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>18576</t>
+          <t>21203</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>14749</t>
+          <t>17217</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>22618</t>
+          <t>25944</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>10,25%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20443</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17227</t>
+          <t>22369</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24736</t>
+          <t>31630</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20422</t>
+          <t>25437</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16827</t>
+          <t>21408</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24051</t>
+          <t>30404</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>40865</t>
+          <t>52379</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36381</t>
+          <t>46422</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>46148</t>
+          <t>60125</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>23,75%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>67620</t>
+          <t>89030</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>63027</t>
+          <t>84102</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71263</t>
+          <t>94496</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>70,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>70662</t>
+          <t>90524</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66731</t>
+          <t>85282</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>74826</t>
+          <t>95251</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>66,64%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>75,18%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>138282</t>
+          <t>179553</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>132307</t>
+          <t>171168</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>143429</t>
+          <t>186310</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
+          <t>70,93%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>72,54%</t>
+          <t>73,6%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15271</t>
+          <t>14111</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12153</t>
+          <t>10896</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18849</t>
+          <t>17555</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14452</t>
+          <t>14785</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11486</t>
+          <t>11600</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17767</t>
+          <t>18643</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>29722</t>
+          <t>28896</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25269</t>
+          <t>24858</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>34873</t>
+          <t>33960</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27332</t>
+          <t>28509</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23037</t>
+          <t>24424</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>32956</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27480</t>
+          <t>26979</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23222</t>
+          <t>22883</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>31664</t>
+          <t>31082</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>54812</t>
+          <t>55488</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>48414</t>
+          <t>49243</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>60746</t>
+          <t>61625</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98648</t>
+          <t>105519</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>93694</t>
+          <t>100547</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>103655</t>
+          <t>110459</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,33%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,38%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>98488</t>
+          <t>108310</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>93699</t>
+          <t>103579</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>103129</t>
+          <t>113496</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>66,73%</t>
+          <t>69,02%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>73,44%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>197135</t>
+          <t>213831</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>190555</t>
+          <t>206409</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>205050</t>
+          <t>220675</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>69,99%</t>
+          <t>71,7%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>69,21%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>74,0%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2560,32 +2560,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12264</t>
+          <t>13232</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9646</t>
+          <t>10361</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15880</t>
+          <t>16662</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2595,32 +2595,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13641</t>
+          <t>13103</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10904</t>
+          <t>10266</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>17211</t>
+          <t>15942</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2630,32 +2630,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>25905</t>
+          <t>26334</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>21997</t>
+          <t>22333</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>30718</t>
+          <t>30476</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25679</t>
+          <t>26383</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21759</t>
+          <t>22361</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30328</t>
+          <t>30461</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2708,32 +2708,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27062</t>
+          <t>27398</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23289</t>
+          <t>23597</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>31582</t>
+          <t>31613</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2743,32 +2743,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>52741</t>
+          <t>53782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>47293</t>
+          <t>48595</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>58870</t>
+          <t>60026</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>22,25%</t>
         </is>
       </c>
     </row>
@@ -2786,32 +2786,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>89373</t>
+          <t>90454</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>84377</t>
+          <t>85622</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>93881</t>
+          <t>95370</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>69,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>66,27%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>73,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2821,32 +2821,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>108929</t>
+          <t>99265</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>103560</t>
+          <t>94597</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>113495</t>
+          <t>103708</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>69,21%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2856,32 +2856,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>198302</t>
+          <t>189719</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>191549</t>
+          <t>182618</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>204943</t>
+          <t>195748</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>70,31%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>69,16%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>72,54%</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8813</t>
+          <t>7673</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6667</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11292</t>
+          <t>10247</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3051,32 +3051,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10781</t>
+          <t>9410</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>8502</t>
+          <t>7451</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>14085</t>
+          <t>12078</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3086,32 +3086,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>19594</t>
+          <t>17083</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>16125</t>
+          <t>14165</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>23627</t>
+          <t>20333</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -3129,32 +3129,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>17088</t>
+          <t>14594</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14122</t>
+          <t>11941</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>20435</t>
+          <t>17453</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21712</t>
+          <t>18808</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>18038</t>
+          <t>15939</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25423</t>
+          <t>22385</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3199,32 +3199,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>38800</t>
+          <t>33402</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>34264</t>
+          <t>29535</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>44534</t>
+          <t>37797</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>18,2%</t>
         </is>
       </c>
     </row>
@@ -3242,32 +3242,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>87162</t>
+          <t>73385</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>82721</t>
+          <t>69602</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>90543</t>
+          <t>76581</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>76,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>73,16%</t>
+          <t>72,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>80,08%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3277,32 +3277,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>84748</t>
+          <t>83752</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>80328</t>
+          <t>79567</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>89072</t>
+          <t>87173</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>74,8%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3312,32 +3312,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>171909</t>
+          <t>157138</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>165342</t>
+          <t>152065</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>177595</t>
+          <t>161427</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>77,75%</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>6176</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9594</t>
+          <t>8570</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,67 +3507,67 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6827</t>
+          <t>7327</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>5125</t>
+          <t>5276</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>9277</t>
+          <t>9926</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>10569</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>16855</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
           <t>5,12%</t>
         </is>
       </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>13773</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>10999</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>17354</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>4,75%</t>
-        </is>
-      </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>8,16%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>16318</t>
+          <t>13245</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13313</t>
+          <t>10720</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>19569</t>
+          <t>16092</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24991</t>
+          <t>23661</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>21072</t>
+          <t>20254</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>28876</t>
+          <t>27455</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>41309</t>
+          <t>36906</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>36759</t>
+          <t>32387</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>47223</t>
+          <t>41115</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>19,92%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>74795</t>
+          <t>60982</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>71009</t>
+          <t>57590</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>78124</t>
+          <t>63837</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>72,41%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>101521</t>
+          <t>95044</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>97189</t>
+          <t>90924</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>105615</t>
+          <t>98926</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>76,14%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>72,89%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>176317</t>
+          <t>156026</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>170443</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>181589</t>
+          <t>160566</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>73,66%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>78,47%</t>
+          <t>77,78%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3928,32 +3928,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>63320</t>
+          <t>65268</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>56744</t>
+          <t>59385</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>70449</t>
+          <t>73482</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3963,32 +3963,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>65898</t>
+          <t>69808</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>59761</t>
+          <t>62782</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>73146</t>
+          <t>77839</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3998,32 +3998,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>129218</t>
+          <t>135076</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>119717</t>
+          <t>125488</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>139306</t>
+          <t>145546</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>136621</t>
+          <t>142379</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>127349</t>
+          <t>132425</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>146202</t>
+          <t>152217</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>145826</t>
+          <t>148602</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>136400</t>
+          <t>139684</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>157046</t>
+          <t>158396</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>282447</t>
+          <t>290981</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>268804</t>
+          <t>276333</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>296314</t>
+          <t>304421</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -4154,22 +4154,22 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>513831</t>
+          <t>532040</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>502858</t>
+          <t>521143</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>524609</t>
+          <t>543969</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>71,93%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4189,32 +4189,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>558503</t>
+          <t>593950</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>546543</t>
+          <t>581916</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>569325</t>
+          <t>604654</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>70,96%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4224,32 +4224,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>1072334</t>
+          <t>1125989</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>1058335</t>
+          <t>1109571</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>1088567</t>
+          <t>1143008</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>72,26%</t>
+          <t>72,55%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>71,49%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>73,35%</t>
+          <t>73,65%</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4302,17 +4302,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4337,17 +4337,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4632,12 +4632,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2864</t>
+          <t>2992</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23743</t>
+          <t>25094</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8584</t>
+          <t>8351</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30865</t>
+          <t>29705</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14255</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>43392</t>
+          <t>43965</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4717,12 +4717,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -4745,12 +4745,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20667</t>
+          <t>20063</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56720</t>
+          <t>57169</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33497</t>
+          <t>34128</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>67313</t>
+          <t>67997</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>58058</t>
+          <t>62159</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>111089</t>
+          <t>116118</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4830,12 +4830,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>27,61%</t>
         </is>
       </c>
     </row>
@@ -4858,12 +4858,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>169027</t>
+          <t>169749</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>209249</t>
+          <t>210109</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,55%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>88,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>100128</t>
+          <t>100214</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>134853</t>
+          <t>136403</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>73,15%</t>
+          <t>73,99%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>281450</t>
+          <t>280805</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>337996</t>
+          <t>337990</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
@@ -5088,12 +5088,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>5798</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25184</t>
+          <t>26219</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9399</t>
+          <t>8635</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34157</t>
+          <t>32147</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>20236</t>
+          <t>20163</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>50285</t>
+          <t>49610</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40350</t>
+          <t>40490</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75384</t>
+          <t>74895</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21613</t>
+          <t>20071</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>63519</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>64300</t>
+          <t>64979</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>125822</t>
+          <t>130987</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5286,12 +5286,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>24,09%</t>
         </is>
       </c>
     </row>
@@ -5314,12 +5314,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>140328</t>
+          <t>140819</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>178224</t>
+          <t>177725</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>61,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5349,12 +5349,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>223896</t>
+          <t>224319</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>282530</t>
+          <t>284802</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>377965</t>
+          <t>377330</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>456145</t>
+          <t>459527</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5399,12 +5399,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>69,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>84,5%</t>
         </is>
       </c>
     </row>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11155</t>
+          <t>11057</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29436</t>
+          <t>28938</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5559,12 +5559,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20457</t>
+          <t>20935</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37242</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>36700</t>
+          <t>35396</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>61674</t>
+          <t>60948</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>49142</t>
+          <t>50467</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81934</t>
+          <t>80565</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5672,47 +5672,47 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>62404</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>50970</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>74667</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
           <t>15,88%</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>26,48%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>62404</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>51724</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>75386</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>19,44%</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>16,11%</t>
-        </is>
-      </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>108198</t>
+          <t>109606</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>147036</t>
+          <t>148420</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>23,54%</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>209200</t>
+          <t>209932</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>243859</t>
+          <t>241875</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>67,61%</t>
+          <t>67,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>215773</t>
+          <t>216091</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>242914</t>
+          <t>243279</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>434878</t>
+          <t>433412</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>477278</t>
+          <t>478007</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>75,82%</t>
         </is>
       </c>
     </row>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6855</t>
+          <t>7872</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>47160</t>
+          <t>45508</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22528</t>
+          <t>22592</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39308</t>
+          <t>39695</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6070,12 +6070,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>25499</t>
+          <t>26476</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>78397</t>
+          <t>78434</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
@@ -6113,12 +6113,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26390</t>
+          <t>29643</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>131303</t>
+          <t>131877</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6148,12 +6148,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>77876</t>
+          <t>79280</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>105503</t>
+          <t>106138</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>79430</t>
+          <t>79369</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>228671</t>
+          <t>226605</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>21,96%</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>455037</t>
+          <t>453323</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>592000</t>
+          <t>587405</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>72,55%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>267870</t>
+          <t>267837</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>297874</t>
+          <t>296843</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>66,16%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6296,12 +6296,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>731070</t>
+          <t>733228</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>927252</t>
+          <t>926086</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>89,74%</t>
         </is>
       </c>
     </row>
@@ -6456,12 +6456,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18853</t>
+          <t>19525</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>37521</t>
+          <t>37923</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>22665</t>
+          <t>22798</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>38607</t>
+          <t>38202</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6506,12 +6506,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6526,12 +6526,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>46739</t>
+          <t>46203</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>71631</t>
+          <t>70209</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,63%</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>61307</t>
+          <t>61018</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>91649</t>
+          <t>90783</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6604,12 +6604,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>55370</t>
+          <t>54959</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>78291</t>
+          <t>78211</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>123772</t>
+          <t>122463</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>161212</t>
+          <t>159852</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6654,12 +6654,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>24,2%</t>
         </is>
       </c>
     </row>
@@ -6682,12 +6682,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>220933</t>
+          <t>219020</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>254428</t>
+          <t>251996</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6697,12 +6697,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6717,12 +6717,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>211080</t>
+          <t>212430</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>236538</t>
+          <t>237204</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>66,12%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>73,62%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>439445</t>
+          <t>441478</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>480988</t>
+          <t>482716</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6767,12 +6767,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>73,07%</t>
         </is>
       </c>
     </row>
@@ -6912,12 +6912,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8998</t>
+          <t>9346</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>20775</t>
+          <t>21424</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6947,12 +6947,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>28574</t>
+          <t>27909</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6962,12 +6962,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6982,12 +6982,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>11845</t>
+          <t>10424</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>43534</t>
+          <t>44666</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6997,12 +6997,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -7025,12 +7025,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>32644</t>
+          <t>33586</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>50686</t>
+          <t>51672</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7040,12 +7040,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7060,12 +7060,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>90360</t>
+          <t>90061</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>384650</t>
+          <t>398865</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7075,12 +7075,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>84,98%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7095,12 +7095,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>132224</t>
+          <t>130167</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>502314</t>
+          <t>519865</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>76,02%</t>
+          <t>78,68%</t>
         </is>
       </c>
     </row>
@@ -7138,12 +7138,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>141645</t>
+          <t>141986</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>162083</t>
+          <t>162170</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>68,07%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>77,93%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7173,12 +7173,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>63263</t>
+          <t>49933</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>336177</t>
+          <t>337107</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7208,12 +7208,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>146664</t>
+          <t>133594</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>489831</t>
+          <t>491093</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7223,12 +7223,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>74,14%</t>
+          <t>74,33%</t>
         </is>
       </c>
     </row>
@@ -7368,12 +7368,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>10308</t>
+          <t>10357</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>8827</t>
+          <t>8757</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>20594</t>
+          <t>21057</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7418,12 +7418,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7438,12 +7438,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>12791</t>
+          <t>12881</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>27701</t>
+          <t>26680</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7453,12 +7453,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>35301</t>
+          <t>36962</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>53911</t>
+          <t>54955</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>45902</t>
+          <t>46342</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>64906</t>
+          <t>64816</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7531,12 +7531,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7551,12 +7551,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>88411</t>
+          <t>87365</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>112999</t>
+          <t>112544</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7566,12 +7566,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,12%</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>91978</t>
+          <t>91161</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>111283</t>
+          <t>109614</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7609,12 +7609,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>60,06%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7629,12 +7629,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>156000</t>
+          <t>155655</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>175910</t>
+          <t>177138</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7644,12 +7644,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,32%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7664,12 +7664,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>254764</t>
+          <t>253481</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>281539</t>
+          <t>281368</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>65,59%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>72,85%</t>
+          <t>72,8%</t>
         </is>
       </c>
     </row>
@@ -7824,12 +7824,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>78623</t>
+          <t>76196</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>140910</t>
+          <t>139326</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7859,12 +7859,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>111749</t>
+          <t>107320</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>182626</t>
+          <t>181509</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7874,12 +7874,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7894,12 +7894,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>207384</t>
+          <t>210159</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>309456</t>
+          <t>305933</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -7937,12 +7937,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>247838</t>
+          <t>255654</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>463529</t>
+          <t>458704</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -7972,12 +7972,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>446245</t>
+          <t>447676</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>1063813</t>
+          <t>1143091</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7987,12 +7987,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>51,19%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -8007,12 +8007,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>815244</t>
+          <t>817605</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>1506187</t>
+          <t>1645283</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8022,12 +8022,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>37,96%</t>
         </is>
       </c>
     </row>
@@ -8050,12 +8050,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1510692</t>
+          <t>1514982</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1785537</t>
+          <t>1767675</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>84,97%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1059481</t>
+          <t>976296</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>1620179</t>
+          <t>1619145</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8100,12 +8100,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>72,55%</t>
+          <t>72,5%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>2603326</t>
+          <t>2486247</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>3260667</t>
+          <t>3256793</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>75,22%</t>
+          <t>75,13%</t>
         </is>
       </c>
     </row>
@@ -12414,12 +12414,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11002</t>
+          <t>10980</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19815</t>
+          <t>20428</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12429,12 +12429,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12449,12 +12449,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12124</t>
+          <t>11405</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21312</t>
+          <t>20940</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -12484,12 +12484,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>25556</t>
+          <t>24828</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>39010</t>
+          <t>38399</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -12499,12 +12499,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>30,42%</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10743</t>
+          <t>10662</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19681</t>
+          <t>19940</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -12542,12 +12542,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -12562,12 +12562,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14225</t>
+          <t>14641</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23978</t>
+          <t>24380</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -12577,12 +12577,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -12597,12 +12597,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>27214</t>
+          <t>27497</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>40608</t>
+          <t>40769</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -12612,12 +12612,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>32,3%</t>
         </is>
       </c>
     </row>
@@ -12640,12 +12640,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29659</t>
+          <t>29052</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40555</t>
+          <t>40350</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -12655,12 +12655,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>44,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>62,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21360</t>
+          <t>20742</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31381</t>
+          <t>31675</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -12690,12 +12690,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>50,99%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -12710,12 +12710,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>53345</t>
+          <t>53869</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>69196</t>
+          <t>69372</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -12725,12 +12725,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>54,96%</t>
         </is>
       </c>
     </row>
@@ -12870,12 +12870,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37641</t>
+          <t>37171</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52864</t>
+          <t>52438</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -12885,12 +12885,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -12905,12 +12905,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>51797</t>
+          <t>51382</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>69600</t>
+          <t>68016</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -12920,12 +12920,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -12940,12 +12940,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>93967</t>
+          <t>94190</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>116501</t>
+          <t>117917</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -12955,12 +12955,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>46,85%</t>
         </is>
       </c>
     </row>
@@ -12983,12 +12983,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26409</t>
+          <t>26170</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40914</t>
+          <t>40329</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -12998,12 +12998,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -13018,12 +13018,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19724</t>
+          <t>19318</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33630</t>
+          <t>33852</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -13033,12 +13033,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -13053,12 +13053,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>49899</t>
+          <t>49870</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>71006</t>
+          <t>69971</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>27,8%</t>
         </is>
       </c>
     </row>
@@ -13096,12 +13096,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38651</t>
+          <t>39064</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54445</t>
+          <t>54928</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -13111,12 +13111,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -13131,12 +13131,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33990</t>
+          <t>34566</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50386</t>
+          <t>50626</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -13146,12 +13146,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -13166,12 +13166,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>76591</t>
+          <t>77086</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>98534</t>
+          <t>100648</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -13181,12 +13181,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>39,99%</t>
         </is>
       </c>
     </row>
@@ -13326,12 +13326,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43534</t>
+          <t>43492</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61623</t>
+          <t>62039</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -13341,12 +13341,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>46128</t>
+          <t>45679</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>62579</t>
+          <t>63267</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -13376,12 +13376,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>48,14%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -13396,12 +13396,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>93740</t>
+          <t>95456</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>119603</t>
+          <t>120529</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -13411,12 +13411,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>44,51%</t>
         </is>
       </c>
     </row>
@@ -13439,12 +13439,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18563</t>
+          <t>18043</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31423</t>
+          <t>31711</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -13454,12 +13454,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -13474,12 +13474,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24110</t>
+          <t>24128</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>38433</t>
+          <t>38880</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -13489,12 +13489,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -13509,12 +13509,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>46276</t>
+          <t>46493</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>64931</t>
+          <t>65549</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -13524,12 +13524,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>24,21%</t>
         </is>
       </c>
     </row>
@@ -13552,12 +13552,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>53558</t>
+          <t>53594</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>70889</t>
+          <t>73009</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -13567,12 +13567,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -13587,12 +13587,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>38438</t>
+          <t>38818</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>55237</t>
+          <t>55224</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -13602,12 +13602,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>42,02%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -13622,12 +13622,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>97187</t>
+          <t>95592</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>122949</t>
+          <t>120689</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -13637,12 +13637,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>44,57%</t>
         </is>
       </c>
     </row>
@@ -13782,12 +13782,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33337</t>
+          <t>32843</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48197</t>
+          <t>47590</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -13797,12 +13797,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -13817,12 +13817,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>43339</t>
+          <t>43027</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>58621</t>
+          <t>59300</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -13832,12 +13832,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -13852,12 +13852,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>80847</t>
+          <t>80192</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>102553</t>
+          <t>103062</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -13867,12 +13867,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>43,45%</t>
         </is>
       </c>
     </row>
@@ -13895,12 +13895,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18123</t>
+          <t>18967</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30799</t>
+          <t>31440</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -13910,12 +13910,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -13930,12 +13930,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19985</t>
+          <t>20498</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>32303</t>
+          <t>32629</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -13945,12 +13945,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -13965,12 +13965,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>42574</t>
+          <t>42204</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>59687</t>
+          <t>59548</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -13980,12 +13980,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -14008,12 +14008,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44712</t>
+          <t>45037</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>61312</t>
+          <t>62059</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -14023,12 +14023,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>52,11%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -14043,12 +14043,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>35575</t>
+          <t>35746</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>50925</t>
+          <t>50860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -14058,12 +14058,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -14078,12 +14078,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>83815</t>
+          <t>84492</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>106656</t>
+          <t>108540</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -14093,12 +14093,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>45,76%</t>
         </is>
       </c>
     </row>
@@ -14238,12 +14238,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23590</t>
+          <t>23158</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>38665</t>
+          <t>37757</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -14253,12 +14253,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -14273,12 +14273,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>39461</t>
+          <t>39559</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>55141</t>
+          <t>53810</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -14288,12 +14288,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>46,44%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -14308,12 +14308,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>65637</t>
+          <t>66382</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>88014</t>
+          <t>87945</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -14323,12 +14323,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>41,12%</t>
         </is>
       </c>
     </row>
@@ -14351,12 +14351,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20016</t>
+          <t>20314</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33301</t>
+          <t>33116</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -14366,12 +14366,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -14386,12 +14386,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19875</t>
+          <t>19830</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>33173</t>
+          <t>32111</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -14401,12 +14401,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -14421,12 +14421,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>42787</t>
+          <t>43760</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>61563</t>
+          <t>61696</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -14436,12 +14436,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>28,85%</t>
         </is>
       </c>
     </row>
@@ -14464,12 +14464,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33526</t>
+          <t>34223</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>49979</t>
+          <t>50316</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -14479,12 +14479,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>50,99%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -14499,12 +14499,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36529</t>
+          <t>36750</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>51088</t>
+          <t>52609</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -14514,12 +14514,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -14534,12 +14534,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>74065</t>
+          <t>73819</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>97175</t>
+          <t>95178</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -14549,12 +14549,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>44,5%</t>
         </is>
       </c>
     </row>
@@ -14694,12 +14694,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>20093</t>
+          <t>19823</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>31877</t>
+          <t>31662</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -14709,12 +14709,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -14729,12 +14729,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>23263</t>
+          <t>23477</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>36051</t>
+          <t>35809</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -14744,12 +14744,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -14764,12 +14764,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>46944</t>
+          <t>46188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>63989</t>
+          <t>63824</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -14779,12 +14779,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>40,53%</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8999</t>
+          <t>8893</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>19192</t>
+          <t>18928</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -14822,12 +14822,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -14842,12 +14842,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>13167</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>23202</t>
+          <t>23870</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -14857,12 +14857,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -14877,12 +14877,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>24641</t>
+          <t>24475</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>39627</t>
+          <t>38880</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>24,69%</t>
         </is>
       </c>
     </row>
@@ -14920,12 +14920,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24304</t>
+          <t>23623</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>36586</t>
+          <t>36077</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -14935,12 +14935,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -14955,12 +14955,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>34200</t>
+          <t>34448</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>48731</t>
+          <t>48299</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -14970,12 +14970,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>38,99%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>55,15%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -14990,12 +14990,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>62244</t>
+          <t>60994</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>80256</t>
+          <t>80219</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -15005,12 +15005,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>50,94%</t>
         </is>
       </c>
     </row>
@@ -15150,12 +15150,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12609</t>
+          <t>12864</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>23248</t>
+          <t>23441</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -15165,12 +15165,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>33,97%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -15185,12 +15185,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>24680</t>
+          <t>24065</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>39509</t>
+          <t>38743</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -15200,12 +15200,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -15220,12 +15220,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>39727</t>
+          <t>40532</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>56965</t>
+          <t>57609</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -15235,12 +15235,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>31,62%</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11022</t>
+          <t>10870</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20749</t>
+          <t>20091</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -15278,12 +15278,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -15298,12 +15298,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>10011</t>
+          <t>10175</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>21823</t>
+          <t>21403</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -15313,12 +15313,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -15333,12 +15333,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>23505</t>
+          <t>23760</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>37943</t>
+          <t>37390</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -15348,12 +15348,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,52%</t>
         </is>
       </c>
     </row>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>30085</t>
+          <t>30559</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>41605</t>
+          <t>41976</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -15391,12 +15391,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>44,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -15411,12 +15411,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>58792</t>
+          <t>59161</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>75093</t>
+          <t>76015</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -15426,12 +15426,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>52,28%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -15446,12 +15446,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>93037</t>
+          <t>93767</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>113351</t>
+          <t>113340</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -15461,12 +15461,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>62,22%</t>
+          <t>62,21%</t>
         </is>
       </c>
     </row>
@@ -15606,12 +15606,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>207733</t>
+          <t>208387</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>245192</t>
+          <t>247651</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -15621,12 +15621,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -15641,12 +15641,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>269282</t>
+          <t>268391</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>308434</t>
+          <t>307895</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -15656,12 +15656,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -15676,12 +15676,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>485720</t>
+          <t>487601</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>542494</t>
+          <t>540005</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -15691,12 +15691,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>37,52%</t>
         </is>
       </c>
     </row>
@@ -15719,12 +15719,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>135637</t>
+          <t>136538</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>167180</t>
+          <t>168520</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -15734,12 +15734,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -15754,12 +15754,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>145131</t>
+          <t>145470</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>177714</t>
+          <t>178112</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -15769,12 +15769,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -15789,12 +15789,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>289064</t>
+          <t>288750</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>333125</t>
+          <t>333987</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -15804,12 +15804,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>23,2%</t>
         </is>
       </c>
     </row>
@@ -15832,12 +15832,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>284561</t>
+          <t>284338</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>324167</t>
+          <t>325545</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -15847,12 +15847,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>47,77%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -15867,12 +15867,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>290564</t>
+          <t>289384</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>329143</t>
+          <t>331254</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -15882,12 +15882,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -15902,12 +15902,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>585844</t>
+          <t>584091</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>644619</t>
+          <t>641236</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -15917,12 +15917,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>44,55%</t>
         </is>
       </c>
     </row>
